--- a/uniaxial-loading-unloading/time_strain_stress/0d05_2d5.xlsx
+++ b/uniaxial-loading-unloading/time_strain_stress/0d05_2d5.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="15" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="3" uniqueCount="3">
   <si>
     <t>Time_s</t>
   </si>
@@ -67,7 +67,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C109"/>
+  <dimension ref="A1:C108"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -91,1190 +91,1179 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="B2" s="0">
-        <v>1</v>
+        <v>1.0009999999999999</v>
       </c>
       <c r="C2" s="0">
-        <v>0</v>
+        <v>1.1954545454545455</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.5</v>
+        <v>0.52000000000000002</v>
       </c>
       <c r="B3" s="0">
-        <v>1.0249999999999999</v>
+        <v>1.026</v>
       </c>
       <c r="C3" s="0">
-        <v>7.1471197189284128</v>
+        <v>7.462557795146032</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="B4" s="0">
-        <v>1.05</v>
+        <v>1.0509999999999999</v>
       </c>
       <c r="C4" s="0">
-        <v>11.364462714097497</v>
+        <v>11.732658988070753</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="B5" s="0">
-        <v>1.075</v>
+        <v>1.0760000000000001</v>
       </c>
       <c r="C5" s="0">
-        <v>14.753853491436097</v>
+        <v>15.162463183874953</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="B6" s="0">
-        <v>1.1000000000000001</v>
+        <v>1.101</v>
       </c>
       <c r="C6" s="0">
-        <v>17.678192182696527</v>
+        <v>18.112198272315919</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="B7" s="0">
-        <v>1.125</v>
+        <v>1.1259999999999999</v>
       </c>
       <c r="C7" s="0">
-        <v>20.237516732542819</v>
+        <v>20.714282188399839</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>3</v>
+        <v>3.02</v>
       </c>
       <c r="B8" s="0">
-        <v>1.1499999999999999</v>
+        <v>1.151</v>
       </c>
       <c r="C8" s="0">
-        <v>22.541810452349583</v>
+        <v>23.04526285479227</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>3.5</v>
+        <v>3.52</v>
       </c>
       <c r="B9" s="0">
-        <v>1.175</v>
+        <v>1.1759999999999999</v>
       </c>
       <c r="C9" s="0">
-        <v>24.635812384716726</v>
+        <v>25.154700946112719</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>4</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="B10" s="0">
-        <v>1.2</v>
+        <v>1.2010000000000001</v>
       </c>
       <c r="C10" s="0">
-        <v>26.529096179183131</v>
+        <v>27.076150555327029</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>4.5</v>
+        <v>4.5199999999999996</v>
       </c>
       <c r="B11" s="0">
-        <v>1.2250000000000001</v>
+        <v>1.226</v>
       </c>
       <c r="C11" s="0">
-        <v>28.276817566974078</v>
+        <v>28.831058000822711</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>5</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="B12" s="0">
-        <v>1.25</v>
+        <v>1.2509999999999999</v>
       </c>
       <c r="C12" s="0">
-        <v>29.877448045674118</v>
+        <v>30.460305224187582</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>5.5</v>
+        <v>5.5199999999999996</v>
       </c>
       <c r="B13" s="0">
-        <v>1.2749999999999999</v>
+        <v>1.276</v>
       </c>
       <c r="C13" s="0">
-        <v>31.383828019323662</v>
+        <v>31.964618675442203</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>6</v>
+        <v>6.0199999999999996</v>
       </c>
       <c r="B14" s="0">
-        <v>1.3</v>
+        <v>1.3009999999999999</v>
       </c>
       <c r="C14" s="0">
-        <v>32.764153711023262</v>
+        <v>33.367709584533117</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>6.5</v>
+        <v>6.5199999999999996</v>
       </c>
       <c r="B15" s="0">
-        <v>1.325</v>
+        <v>1.3260000000000001</v>
       </c>
       <c r="C15" s="0">
-        <v>34.05940008783486</v>
+        <v>34.675596873714525</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>7</v>
+        <v>7.0199999999999996</v>
       </c>
       <c r="B16" s="0">
-        <v>1.3500000000000001</v>
+        <v>1.351</v>
       </c>
       <c r="C16" s="0">
-        <v>35.264910320597266</v>
+        <v>35.874055944055954</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>7.5</v>
+        <v>7.5199999999999996</v>
       </c>
       <c r="B17" s="0">
-        <v>1.375</v>
+        <v>1.3759999999999999</v>
       </c>
       <c r="C17" s="0">
-        <v>36.398173034694764</v>
+        <v>37.028806252570959</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>8</v>
+        <v>8.0199999999999996</v>
       </c>
       <c r="B18" s="0">
-        <v>1.3999999999999999</v>
+        <v>1.401</v>
       </c>
       <c r="C18" s="0">
-        <v>37.465193148880097</v>
+        <v>38.098497737556556</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>8.5</v>
+        <v>8.5199999999999996</v>
       </c>
       <c r="B19" s="0">
-        <v>1.425</v>
+        <v>1.4259999999999999</v>
       </c>
       <c r="C19" s="0">
-        <v>38.468372419850674</v>
+        <v>39.108464829288366</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>9</v>
+        <v>9.0199999999999996</v>
       </c>
       <c r="B20" s="0">
-        <v>1.45</v>
+        <v>1.4510000000000001</v>
       </c>
       <c r="C20" s="0">
-        <v>39.419987000439157</v>
+        <v>40.058493624023036</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>9.5</v>
+        <v>9.5199999999999996</v>
       </c>
       <c r="B21" s="0">
-        <v>1.4750000000000001</v>
+        <v>1.476</v>
       </c>
       <c r="C21" s="0">
-        <v>40.312447782169521</v>
+        <v>40.947896338955175</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>10</v>
+        <v>10.02</v>
       </c>
       <c r="B22" s="0">
-        <v>1.5</v>
+        <v>1.5009999999999999</v>
       </c>
       <c r="C22" s="0">
-        <v>41.165123759332452</v>
+        <v>41.801017688194172</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>10.5</v>
+        <v>10.52</v>
       </c>
       <c r="B23" s="0">
-        <v>1.5249999999999999</v>
+        <v>1.526</v>
       </c>
       <c r="C23" s="0">
-        <v>41.974991128678077</v>
+        <v>42.61059399424105</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>11</v>
+        <v>11.02</v>
       </c>
       <c r="B24" s="0">
-        <v>1.55</v>
+        <v>1.5510000000000002</v>
       </c>
       <c r="C24" s="0">
-        <v>42.747962582345188</v>
+        <v>43.376869600987249</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>11.5</v>
+        <v>11.52</v>
       </c>
       <c r="B25" s="0">
-        <v>1.5750000000000002</v>
+        <v>1.5760000000000001</v>
       </c>
       <c r="C25" s="0">
-        <v>43.486208519982419</v>
+        <v>44.10664253393665</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>12</v>
+        <v>12.02</v>
       </c>
       <c r="B26" s="0">
-        <v>1.6000000000000001</v>
+        <v>1.601</v>
       </c>
       <c r="C26" s="0">
-        <v>44.18421256038647</v>
+        <v>44.813597696421233</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>12.5</v>
+        <v>12.52</v>
       </c>
       <c r="B27" s="0">
-        <v>1.625</v>
+        <v>1.6259999999999999</v>
       </c>
       <c r="C27" s="0">
-        <v>44.851642863416778</v>
+        <v>45.483725215960519</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>13</v>
+        <v>13.02</v>
       </c>
       <c r="B28" s="0">
-        <v>1.6499999999999999</v>
+        <v>1.651</v>
       </c>
       <c r="C28" s="0">
-        <v>45.492047255160287</v>
+        <v>46.120148087206921</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>13.5</v>
+        <v>13.52</v>
       </c>
       <c r="B29" s="0">
-        <v>1.675</v>
+        <v>1.6760000000000002</v>
       </c>
       <c r="C29" s="0">
-        <v>46.108381203337721</v>
+        <v>46.73078157136981</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>14</v>
+        <v>14.02</v>
       </c>
       <c r="B30" s="0">
-        <v>1.7000000000000002</v>
+        <v>1.7010000000000001</v>
       </c>
       <c r="C30" s="0">
-        <v>46.695916908212553</v>
+        <v>47.31436445907034</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>14.5</v>
+        <v>14.52</v>
       </c>
       <c r="B31" s="0">
-        <v>1.7250000000000001</v>
+        <v>1.726</v>
       </c>
       <c r="C31" s="0">
-        <v>47.264171805006569</v>
+        <v>47.894051830522422</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>15</v>
+        <v>15.02</v>
       </c>
       <c r="B32" s="0">
-        <v>1.75</v>
+        <v>1.7509999999999999</v>
       </c>
       <c r="C32" s="0">
-        <v>47.819717347386899</v>
+        <v>48.442399012751963</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>15.5</v>
+        <v>15.52</v>
       </c>
       <c r="B33" s="0">
-        <v>1.7749999999999999</v>
+        <v>1.776</v>
       </c>
       <c r="C33" s="0">
-        <v>48.343666227492307</v>
+        <v>48.962858905800076</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>16</v>
+        <v>16.02</v>
       </c>
       <c r="B34" s="0">
-        <v>1.8</v>
+        <v>1.8010000000000002</v>
       </c>
       <c r="C34" s="0">
-        <v>48.854977953447502</v>
+        <v>49.478605512134926</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>16.5</v>
+        <v>16.52</v>
       </c>
       <c r="B35" s="0">
-        <v>1.8250000000000002</v>
+        <v>1.8260000000000001</v>
       </c>
       <c r="C35" s="0">
-        <v>49.347857707509874</v>
+        <v>49.964380913204451</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>17</v>
+        <v>17.02</v>
       </c>
       <c r="B36" s="0">
-        <v>1.8500000000000001</v>
+        <v>1.851</v>
       </c>
       <c r="C36" s="0">
-        <v>49.82781431708387</v>
+        <v>50.452600575894692</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>17.5</v>
+        <v>17.52</v>
       </c>
       <c r="B37" s="0">
-        <v>1.875</v>
+        <v>1.8759999999999999</v>
       </c>
       <c r="C37" s="0">
-        <v>50.281413263065424</v>
+        <v>50.902914027149322</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>18</v>
+        <v>18.02</v>
       </c>
       <c r="B38" s="0">
-        <v>1.8999999999999999</v>
+        <v>1.901</v>
       </c>
       <c r="C38" s="0">
-        <v>50.751161001317513</v>
+        <v>51.353226655697256</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>18.5</v>
+        <v>18.52</v>
       </c>
       <c r="B39" s="0">
-        <v>1.925</v>
+        <v>1.9260000000000002</v>
       </c>
       <c r="C39" s="0">
-        <v>51.193909530083431</v>
+        <v>51.782519950637607</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>19</v>
+        <v>19.02</v>
       </c>
       <c r="B40" s="0">
-        <v>1.9500000000000002</v>
+        <v>1.9510000000000001</v>
       </c>
       <c r="C40" s="0">
-        <v>51.6149684672815</v>
+        <v>52.200810366104484</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>19.5</v>
+        <v>19.52</v>
       </c>
       <c r="B41" s="0">
-        <v>1.9750000000000001</v>
+        <v>1.976</v>
       </c>
       <c r="C41" s="0">
-        <v>52.032703030303026</v>
+        <v>52.630669683257921</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>20</v>
+        <v>20.02</v>
       </c>
       <c r="B42" s="0">
-        <v>2</v>
+        <v>2.0010000000000003</v>
       </c>
       <c r="C42" s="0">
-        <v>52.441831661092515</v>
+        <v>53.026446729740854</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>20.462</v>
+        <v>20.52</v>
       </c>
       <c r="B43" s="0">
-        <v>1.9769000000000001</v>
+        <v>2.0259999999999998</v>
       </c>
       <c r="C43" s="0">
-        <v>49.13338499620712</v>
+        <v>53.408422048539705</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>20.962</v>
+        <v>21.02</v>
       </c>
       <c r="B44" s="0">
-        <v>1.9519</v>
+        <v>2.0510000000000002</v>
       </c>
       <c r="C44" s="0">
-        <v>46.582152832674566</v>
+        <v>53.798997943233253</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>21.462</v>
+        <v>21.52</v>
       </c>
       <c r="B45" s="0">
-        <v>1.9269000000000001</v>
+        <v>2.0760000000000001</v>
       </c>
       <c r="C45" s="0">
-        <v>44.493842296482605</v>
+        <v>54.179130399012756</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>21.962</v>
+        <v>22.02</v>
       </c>
       <c r="B46" s="0">
-        <v>1.9018999999999999</v>
+        <v>2.101</v>
       </c>
       <c r="C46" s="0">
-        <v>42.613191120693088</v>
+        <v>54.534784039489928</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>22.462</v>
+        <v>22.52</v>
       </c>
       <c r="B47" s="0">
-        <v>1.8769</v>
+        <v>2.1260000000000003</v>
       </c>
       <c r="C47" s="0">
-        <v>40.868696690222372</v>
+        <v>54.906746194981501</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>22.962</v>
+        <v>23.02</v>
       </c>
       <c r="B48" s="0">
-        <v>1.8519000000000001</v>
+        <v>2.1509999999999998</v>
       </c>
       <c r="C48" s="0">
-        <v>39.218149478979512</v>
+        <v>55.25744138214727</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>23.462</v>
+        <v>23.52</v>
       </c>
       <c r="B49" s="0">
-        <v>1.8269</v>
+        <v>2.1760000000000002</v>
       </c>
       <c r="C49" s="0">
-        <v>37.626068990298222</v>
+        <v>55.607625668449209</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>23.962</v>
+        <v>24.02</v>
       </c>
       <c r="B50" s="0">
-        <v>1.8019000000000001</v>
+        <v>2.2010000000000001</v>
       </c>
       <c r="C50" s="0">
-        <v>36.077379167165716</v>
+        <v>55.949695598519142</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>24.462</v>
+        <v>24.52</v>
       </c>
       <c r="B51" s="0">
-        <v>1.7768999999999999</v>
+        <v>2.226</v>
       </c>
       <c r="C51" s="0">
-        <v>34.576739250209606</v>
+        <v>56.286004113533544</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>24.962</v>
+        <v>25.02</v>
       </c>
       <c r="B52" s="0">
-        <v>1.7519</v>
+        <v>2.2510000000000003</v>
       </c>
       <c r="C52" s="0">
-        <v>33.083935002195865</v>
+        <v>56.609857671740031</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>25.462</v>
+        <v>25.52</v>
       </c>
       <c r="B53" s="0">
-        <v>1.7269000000000001</v>
+        <v>2.2759999999999998</v>
       </c>
       <c r="C53" s="0">
-        <v>31.626095260909487</v>
+        <v>56.930531468531484</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>25.962</v>
+        <v>26.02</v>
       </c>
       <c r="B54" s="0">
-        <v>1.7019</v>
+        <v>2.3010000000000002</v>
       </c>
       <c r="C54" s="0">
-        <v>30.17554924741486</v>
+        <v>57.256420403126292</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>26.462</v>
+        <v>26.52</v>
       </c>
       <c r="B55" s="0">
-        <v>1.6769000000000001</v>
+        <v>2.3260000000000001</v>
       </c>
       <c r="C55" s="0">
-        <v>28.727583503014323</v>
+        <v>57.57731386260798</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>26.962</v>
+        <v>27.02</v>
       </c>
       <c r="B56" s="0">
-        <v>1.6518999999999999</v>
+        <v>2.351</v>
       </c>
       <c r="C56" s="0">
-        <v>27.272339761248841</v>
+        <v>57.890243521184701</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>27.462</v>
+        <v>27.52</v>
       </c>
       <c r="B57" s="0">
-        <v>1.6269</v>
+        <v>2.3760000000000003</v>
       </c>
       <c r="C57" s="0">
-        <v>25.82530003593244</v>
+        <v>58.202736322501053</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>27.962</v>
+        <v>28.02</v>
       </c>
       <c r="B58" s="0">
-        <v>1.6019000000000001</v>
+        <v>2.4009999999999998</v>
       </c>
       <c r="C58" s="0">
-        <v>24.367982672575558</v>
+        <v>58.512922254216377</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0">
-        <v>28.462</v>
+        <v>28.52</v>
       </c>
       <c r="B59" s="0">
-        <v>1.5769</v>
+        <v>2.4260000000000002</v>
       </c>
       <c r="C59" s="0">
-        <v>22.895988102367546</v>
+        <v>58.811085150143988</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>28.962</v>
+        <v>29.02</v>
       </c>
       <c r="B60" s="0">
-        <v>1.5519000000000001</v>
+        <v>2.4510000000000001</v>
       </c>
       <c r="C60" s="0">
-        <v>21.408518066035846</v>
+        <v>59.115967091731818</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>29.462</v>
+        <v>29.52</v>
       </c>
       <c r="B61" s="0">
-        <v>1.5268999999999999</v>
+        <v>2.476</v>
       </c>
       <c r="C61" s="0">
-        <v>19.903755898910042</v>
+        <v>59.417689839572205</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0">
-        <v>29.962</v>
+        <v>30.001000000000001</v>
       </c>
       <c r="B62" s="0">
-        <v>1.5019</v>
+        <v>2.5000499999999999</v>
       </c>
       <c r="C62" s="0">
-        <v>18.373426917395296</v>
+        <v>59.707743579949465</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0">
-        <v>30.462</v>
+        <v>30.483000000000001</v>
       </c>
       <c r="B63" s="0">
-        <v>1.4769000000000001</v>
+        <v>2.4759500000000001</v>
       </c>
       <c r="C63" s="0">
-        <v>16.82764690382081</v>
+        <v>57.174970270371347</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0">
-        <v>30.962</v>
+        <v>30.983000000000001</v>
       </c>
       <c r="B64" s="0">
-        <v>1.4519</v>
+        <v>2.4509499999999997</v>
       </c>
       <c r="C64" s="0">
-        <v>15.239145686110106</v>
+        <v>55.215645637784675</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0">
-        <v>31.462</v>
+        <v>31.483000000000001</v>
       </c>
       <c r="B65" s="0">
-        <v>1.4268999999999998</v>
+        <v>2.4259499999999998</v>
       </c>
       <c r="C65" s="0">
-        <v>13.624060126961311</v>
+        <v>53.566035301596806</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0">
-        <v>31.962</v>
+        <v>31.983000000000001</v>
       </c>
       <c r="B66" s="0">
-        <v>1.4018999999999999</v>
+        <v>2.4009499999999999</v>
       </c>
       <c r="C66" s="0">
-        <v>11.954372978799855</v>
+        <v>52.086733106465729</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>32.462000000000003</v>
+        <v>32.482999999999997</v>
       </c>
       <c r="B67" s="0">
-        <v>1.3768999999999998</v>
+        <v>2.37595</v>
       </c>
       <c r="C67" s="0">
-        <v>10.258795224977041</v>
+        <v>50.701892599379235</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>32.962000000000003</v>
+        <v>32.982999999999997</v>
       </c>
       <c r="B68" s="0">
-        <v>1.3518999999999997</v>
+        <v>2.3509500000000001</v>
       </c>
       <c r="C68" s="0">
-        <v>8.5134992613885867</v>
+        <v>49.39957032272541</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0">
-        <v>33.462000000000003</v>
+        <v>33.482999999999997</v>
       </c>
       <c r="B69" s="0">
-        <v>1.3268999999999997</v>
+        <v>2.3259500000000002</v>
       </c>
       <c r="C69" s="0">
-        <v>6.7020083842376339</v>
+        <v>48.144533487902478</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0">
-        <v>33.962000000000003</v>
+        <v>33.982999999999997</v>
       </c>
       <c r="B70" s="0">
-        <v>1.3018999999999998</v>
+        <v>2.3009500000000003</v>
       </c>
       <c r="C70" s="0">
-        <v>4.8466454265979948</v>
+        <v>46.938157884895858</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0">
-        <v>34.462000000000003</v>
+        <v>34.482999999999997</v>
       </c>
       <c r="B71" s="0">
-        <v>1.2768999999999999</v>
+        <v>2.2759499999999999</v>
       </c>
       <c r="C71" s="0">
-        <v>2.9243325747594517</v>
+        <v>45.773898881866799</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0">
-        <v>34.962000000000003</v>
+        <v>34.982999999999997</v>
       </c>
       <c r="B72" s="0">
-        <v>1.2518999999999998</v>
+        <v>2.25095</v>
       </c>
       <c r="C72" s="0">
-        <v>0.93301981812653734</v>
+        <v>44.624246662428483</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0">
-        <v>35.463000000000001</v>
+        <v>35.482999999999997</v>
       </c>
       <c r="B73" s="0">
-        <v>2.2268499999999998</v>
+        <v>2.2259500000000001</v>
       </c>
       <c r="C73" s="0">
-        <v>43.557108875314405</v>
+        <v>43.513733592610606</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0">
-        <v>35.963000000000001</v>
+        <v>35.982999999999997</v>
       </c>
       <c r="B74" s="0">
-        <v>2.2018499999999999</v>
+        <v>2.2009500000000002</v>
       </c>
       <c r="C74" s="0">
-        <v>42.455814987822883</v>
+        <v>42.411489099136162</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0">
-        <v>36.463000000000001</v>
+        <v>36.482999999999997</v>
       </c>
       <c r="B75" s="0">
-        <v>2.17685</v>
+        <v>2.1759500000000003</v>
       </c>
       <c r="C75" s="0">
-        <v>41.377651135864561</v>
+        <v>41.336923824838273</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0">
-        <v>36.963000000000001</v>
+        <v>36.982999999999997</v>
       </c>
       <c r="B76" s="0">
-        <v>2.15185</v>
+        <v>2.1509499999999999</v>
       </c>
       <c r="C76" s="0">
-        <v>40.304705553559309</v>
+        <v>40.263012976328497</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0">
-        <v>37.463000000000001</v>
+        <v>37.482999999999997</v>
       </c>
       <c r="B77" s="0">
-        <v>2.1268500000000001</v>
+        <v>2.12595</v>
       </c>
       <c r="C77" s="0">
-        <v>39.258509841497983</v>
+        <v>39.219317153434801</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0">
-        <v>37.963000000000001</v>
+        <v>37.982999999999997</v>
       </c>
       <c r="B78" s="0">
-        <v>2.1018499999999998</v>
+        <v>2.1009500000000001</v>
       </c>
       <c r="C78" s="0">
-        <v>38.201796542500091</v>
+        <v>38.157291799109984</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0">
-        <v>38.463000000000001</v>
+        <v>38.482999999999997</v>
       </c>
       <c r="B79" s="0">
-        <v>2.0768499999999999</v>
+        <v>2.0759500000000002</v>
       </c>
       <c r="C79" s="0">
-        <v>37.156068351499179</v>
+        <v>37.115534198421905</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0">
-        <v>38.963000000000001</v>
+        <v>38.982999999999997</v>
       </c>
       <c r="B80" s="0">
-        <v>2.05185</v>
+        <v>2.0509500000000003</v>
       </c>
       <c r="C80" s="0">
-        <v>36.121414301113902</v>
+        <v>36.081233312142409</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0">
-        <v>39.463000000000001</v>
+        <v>39.482999999999997</v>
       </c>
       <c r="B81" s="0">
-        <v>2.02685</v>
+        <v>2.0259499999999999</v>
       </c>
       <c r="C81" s="0">
-        <v>35.082266379207077</v>
+        <v>35.042634531244168</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0">
-        <v>39.963000000000001</v>
+        <v>39.982999999999997</v>
       </c>
       <c r="B82" s="0">
-        <v>2.0018500000000001</v>
+        <v>2.00095</v>
       </c>
       <c r="C82" s="0">
-        <v>34.051011298758326</v>
+        <v>34.009973449010886</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0">
-        <v>40.463000000000001</v>
+        <v>40.482999999999997</v>
       </c>
       <c r="B83" s="0">
-        <v>1.9768499999999998</v>
+        <v>1.9759500000000001</v>
       </c>
       <c r="C83" s="0">
-        <v>33.015123328143083</v>
+        <v>32.975449310048248</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0">
-        <v>40.963000000000001</v>
+        <v>40.982999999999997</v>
       </c>
       <c r="B84" s="0">
-        <v>1.9518499999999999</v>
+        <v>1.9509500000000002</v>
       </c>
       <c r="C84" s="0">
-        <v>31.975205972771182</v>
+        <v>31.932843573538769</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0">
-        <v>41.463000000000001</v>
+        <v>41.482999999999997</v>
       </c>
       <c r="B85" s="0">
-        <v>1.92685</v>
+        <v>1.9259500000000001</v>
       </c>
       <c r="C85" s="0">
-        <v>30.932189403920621</v>
+        <v>30.891312217194574</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0">
-        <v>41.963000000000001</v>
+        <v>41.982999999999997</v>
       </c>
       <c r="B86" s="0">
-        <v>1.90185</v>
+        <v>1.9009499999999999</v>
       </c>
       <c r="C86" s="0">
-        <v>29.880500419211877</v>
+        <v>29.839205714072033</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0">
-        <v>42.463000000000001</v>
+        <v>42.482999999999997</v>
       </c>
       <c r="B87" s="0">
-        <v>1.8768499999999999</v>
+        <v>1.87595</v>
       </c>
       <c r="C87" s="0">
-        <v>28.832259591967098</v>
+        <v>28.792097528140321</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0">
-        <v>42.963000000000001</v>
+        <v>42.982999999999997</v>
       </c>
       <c r="B88" s="0">
-        <v>1.8518499999999998</v>
+        <v>1.8509500000000001</v>
       </c>
       <c r="C88" s="0">
-        <v>27.768887850840414</v>
+        <v>27.727330316742087</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0">
-        <v>43.463000000000001</v>
+        <v>43.482999999999997</v>
       </c>
       <c r="B89" s="0">
-        <v>1.8268499999999999</v>
+        <v>1.8259500000000002</v>
       </c>
       <c r="C89" s="0">
-        <v>26.687111829760045</v>
+        <v>26.644288171721332</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0">
-        <v>43.963000000000001</v>
+        <v>43.982999999999997</v>
       </c>
       <c r="B90" s="0">
-        <v>1.80185</v>
+        <v>1.8009500000000001</v>
       </c>
       <c r="C90" s="0">
-        <v>25.599654010460331</v>
+        <v>25.556211061665614</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0">
-        <v>44.463000000000001</v>
+        <v>44.482999999999997</v>
       </c>
       <c r="B91" s="0">
-        <v>1.77685</v>
+        <v>1.7759499999999999</v>
       </c>
       <c r="C91" s="0">
-        <v>24.502698766319316</v>
+        <v>24.459973075053295</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0">
-        <v>44.963000000000001</v>
+        <v>44.982999999999997</v>
       </c>
       <c r="B92" s="0">
-        <v>1.7518499999999999</v>
+        <v>1.75095</v>
       </c>
       <c r="C92" s="0">
-        <v>23.388615961991452</v>
+        <v>23.342784862196627</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0">
-        <v>45.463000000000001</v>
+        <v>45.482999999999997</v>
       </c>
       <c r="B93" s="0">
-        <v>1.7268499999999998</v>
+        <v>1.7259500000000001</v>
       </c>
       <c r="C93" s="0">
-        <v>22.260166646704192</v>
+        <v>22.215261957294047</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0">
-        <v>45.963000000000001</v>
+        <v>45.982999999999997</v>
       </c>
       <c r="B94" s="0">
-        <v>1.7018499999999999</v>
+        <v>1.7009500000000002</v>
       </c>
       <c r="C94" s="0">
-        <v>21.102189803170035</v>
+        <v>21.054454956807902</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0">
-        <v>46.463000000000001</v>
+        <v>46.482999999999997</v>
       </c>
       <c r="B95" s="0">
-        <v>1.67685</v>
+        <v>1.6759500000000001</v>
       </c>
       <c r="C95" s="0">
-        <v>19.938450193635962</v>
+        <v>19.890860102464384</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0">
-        <v>46.963000000000001</v>
+        <v>46.982999999999997</v>
       </c>
       <c r="B96" s="0">
-        <v>1.65185</v>
+        <v>1.6509499999999999</v>
       </c>
       <c r="C96" s="0">
-        <v>18.747696251048026</v>
+        <v>18.70099734490109</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0">
-        <v>47.463000000000001</v>
+        <v>47.482999999999997</v>
       </c>
       <c r="B97" s="0">
-        <v>1.6268499999999999</v>
+        <v>1.62595</v>
       </c>
       <c r="C97" s="0">
-        <v>17.543161576236667</v>
+        <v>17.495568228562881</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0">
-        <v>47.963000000000001</v>
+        <v>47.982999999999997</v>
       </c>
       <c r="B98" s="0">
-        <v>1.6018499999999998</v>
+        <v>1.6009500000000001</v>
       </c>
       <c r="C98" s="0">
-        <v>16.293016249451028</v>
+        <v>16.242407912942678</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0">
-        <v>48.463000000000001</v>
+        <v>48.482999999999997</v>
       </c>
       <c r="B99" s="0">
-        <v>1.5768499999999999</v>
+        <v>1.5759500000000002</v>
       </c>
       <c r="C99" s="0">
-        <v>15.02978296802012</v>
+        <v>14.977527766351296</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="0">
-        <v>48.963000000000001</v>
+        <v>48.982999999999997</v>
       </c>
       <c r="B100" s="0">
-        <v>1.55185</v>
+        <v>1.5509500000000001</v>
       </c>
       <c r="C100" s="0">
-        <v>13.730227971413738</v>
+        <v>13.67711529112599</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0">
-        <v>49.463000000000001</v>
+        <v>49.482999999999997</v>
       </c>
       <c r="B101" s="0">
-        <v>1.52685</v>
+        <v>1.5259499999999999</v>
       </c>
       <c r="C101" s="0">
-        <v>12.392038327943466</v>
+        <v>12.337679219176545</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="0">
-        <v>49.963000000000001</v>
+        <v>49.982999999999997</v>
       </c>
       <c r="B102" s="0">
-        <v>1.5018499999999999</v>
+        <v>1.50095</v>
       </c>
       <c r="C102" s="0">
-        <v>11.027187287898748</v>
+        <v>10.971348865038705</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="0">
-        <v>50.463000000000001</v>
+        <v>50.482999999999997</v>
       </c>
       <c r="B103" s="0">
-        <v>1.47685</v>
+        <v>1.4759500000000001</v>
       </c>
       <c r="C103" s="0">
-        <v>9.6202534435261668</v>
+        <v>9.559413260536255</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="0">
-        <v>50.963000000000001</v>
+        <v>50.982999999999997</v>
       </c>
       <c r="B104" s="0">
-        <v>1.4518499999999999</v>
+        <v>1.45095</v>
       </c>
       <c r="C104" s="0">
-        <v>8.1731654090310197</v>
+        <v>8.1145215212594923</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="0">
-        <v>51.463000000000001</v>
+        <v>51.482999999999997</v>
       </c>
       <c r="B105" s="0">
-        <v>1.42685</v>
+        <v>1.4259500000000001</v>
       </c>
       <c r="C105" s="0">
-        <v>6.6842863416776455</v>
+        <v>6.6251392992034708</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="0">
-        <v>51.963000000000001</v>
+        <v>51.982999999999997</v>
       </c>
       <c r="B106" s="0">
-        <v>1.4018499999999998</v>
+        <v>1.4009500000000001</v>
       </c>
       <c r="C106" s="0">
-        <v>5.1408080009581969</v>
+        <v>5.0776911858195284</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="0">
-        <v>52.463000000000001</v>
+        <v>52.482999999999997</v>
       </c>
       <c r="B107" s="0">
-        <v>1.3768499999999999</v>
+        <v>1.37595</v>
       </c>
       <c r="C107" s="0">
-        <v>3.5434670020361718</v>
+        <v>3.4792057140720245</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="0">
-        <v>52.963000000000001</v>
+        <v>52.982999999999997</v>
       </c>
       <c r="B108" s="0">
-        <v>1.35185</v>
+        <v>1.3509500000000001</v>
       </c>
       <c r="C108" s="0">
-        <v>1.9075780732223417</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="0">
-        <v>53.463000000000001</v>
-      </c>
-      <c r="B109" s="0">
-        <v>1.3268499999999999</v>
-      </c>
-      <c r="C109" s="0">
-        <v>0.28244898145332925</v>
+        <v>1.8404962417261883</v>
       </c>
     </row>
   </sheetData>
